--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_4562.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_4562.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4294,10 +4295,6 @@
           <t>4474</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4310,10 +4307,6 @@
           <t>4475</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4329,9 +4322,6 @@
       <c r="B4" t="n">
         <v>10</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4347,9 +4337,6 @@
       <c r="B5" t="n">
         <v>11</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4362,177 +4349,411 @@
           <t>4488</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4491</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4517</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1.95%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4557</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4620</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4622</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4656</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4698</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4700</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4727</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4746</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4751</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4458</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4459</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4474</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4475</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4478</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4491</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4487</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4517</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11</v>
+          <t>4488</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.95%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4524</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4491</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4526</t>
+          <t>4524</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4557</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4526</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4559</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4557</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4620</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>9</v>
-      </c>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4622</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4542,9 +4763,6 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4552,11 +4770,16 @@
           <t>4698</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4564,11 +4787,12 @@
           <t>4700</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4578,9 +4802,6 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4588,11 +4809,16 @@
           <t>4746</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4602,9 +4828,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_4562.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_4562.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1713,7 +1712,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -4295,6 +4294,10 @@
           <t>4474</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4307,6 +4310,10 @@
           <t>4475</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4322,6 +4329,9 @@
       <c r="B4" t="n">
         <v>10</v>
       </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4337,6 +4347,9 @@
       <c r="B5" t="n">
         <v>11</v>
       </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4349,6 +4362,10 @@
           <t>4488</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4361,6 +4378,10 @@
           <t>4491</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4403,6 +4424,10 @@
           <t>4524</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4415,6 +4440,10 @@
           <t>4526</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4427,6 +4456,10 @@
           <t>4557</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4442,6 +4475,9 @@
       <c r="B12" t="n">
         <v>11</v>
       </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4454,6 +4490,10 @@
           <t>4619</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4469,6 +4509,9 @@
       <c r="B14" t="n">
         <v>9</v>
       </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4481,6 +4524,10 @@
           <t>4622</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4493,6 +4540,11 @@
           <t>4656</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4500,6 +4552,11 @@
           <t>4698</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4507,6 +4564,11 @@
           <t>4700</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4514,6 +4576,11 @@
           <t>4727</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4521,6 +4588,11 @@
           <t>4746</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4528,306 +4600,11 @@
           <t>4751</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4458</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4459</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4474</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4475</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4478</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4487</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4488</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4491</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4524</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4526</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4557</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4559</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4620</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4656</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4698</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4700</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4727</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4746</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4751</t>
-        </is>
-      </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_4562.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_4562.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,6 +608,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>15/06/2016</t>
@@ -656,6 +656,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>08/10/2016</t>
@@ -703,6 +704,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>07/02/2017</t>
@@ -750,6 +752,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>19/02/2017</t>
@@ -901,6 +904,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>29/07/2018</t>
@@ -948,6 +952,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>01/08/2018</t>
@@ -995,6 +1000,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>05/08/2018</t>
@@ -1042,6 +1048,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>06/10/2018</t>
@@ -1089,6 +1096,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>22/01/2019</t>
@@ -1136,6 +1144,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>25/01/2019</t>
@@ -1183,6 +1192,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>10/03/2019</t>
@@ -1230,6 +1240,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>13/03/2019</t>
@@ -1277,6 +1288,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>05/06/2019</t>
@@ -1324,6 +1336,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>06/07/2019</t>
@@ -1371,6 +1384,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>04/02/2020</t>
@@ -1418,6 +1432,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>07/02/2020</t>
@@ -1465,6 +1480,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>09/02/2020</t>
@@ -1512,6 +1528,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>29/02/2020</t>
@@ -1559,6 +1576,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>04/03/2020</t>
@@ -1606,6 +1624,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>02/04/2021</t>
@@ -1653,6 +1672,7 @@
           <t>24</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>04/04/2021</t>
@@ -1700,6 +1720,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>11/07/2021</t>
@@ -1799,6 +1820,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>16/07/2021</t>
@@ -1846,6 +1868,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>02/09/2021</t>
@@ -1893,6 +1916,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>04/09/2021</t>
@@ -1992,6 +2016,7 @@
           <t>31</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>26/11/2021</t>
@@ -2039,6 +2064,7 @@
           <t>32</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>19/01/2022</t>
@@ -2086,6 +2112,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>21/01/2022</t>
@@ -2133,6 +2160,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>20/03/2022</t>
@@ -2232,6 +2260,7 @@
           <t>36</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>19/07/2022</t>
@@ -2331,6 +2360,7 @@
           <t>38</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -2378,6 +2408,7 @@
           <t>39</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>06/10/2022</t>
@@ -2425,6 +2456,7 @@
           <t>40</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>27/01/2023</t>
@@ -2576,6 +2608,7 @@
           <t>43</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>31/03/2023</t>
@@ -2623,6 +2656,7 @@
           <t>44</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>02/04/2023</t>
@@ -4240,373 +4274,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4474</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4475</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4478</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4487</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>11</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4488</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4491</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4517</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.95%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4524</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4526</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4557</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4559</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4620</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4622</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4656</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4698</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4700</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4727</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4746</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4751</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>